--- a/DateBase/orders/Test_2025-5-31.xlsx
+++ b/DateBase/orders/Test_2025-5-31.xlsx
@@ -445,6 +445,9 @@
       <c r="A2" t="str">
         <v>1</v>
       </c>
+      <c r="C2" t="str">
+        <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Test_2025-5-31.xlsx
+++ b/DateBase/orders/Test_2025-5-31.xlsx
@@ -448,6 +448,9 @@
       <c r="C2" t="str">
         <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F2" t="str">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -508,8 +511,8 @@
       <c r="F2" t="str">
         <v>0.00</v>
       </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="G2" t="str">
+        <v>012</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Test_2025-5-31.xlsx
+++ b/DateBase/orders/Test_2025-5-31.xlsx
@@ -445,12 +445,6 @@
       <c r="A2" t="str">
         <v>1</v>
       </c>
-      <c r="C2" t="str">
-        <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
-      </c>
-      <c r="F2" t="str">
-        <v>12</v>
-      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -511,8 +505,8 @@
       <c r="F2" t="str">
         <v>0.00</v>
       </c>
-      <c r="G2" t="str">
-        <v>012</v>
+      <c r="G2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Test_2025-5-31.xlsx
+++ b/DateBase/orders/Test_2025-5-31.xlsx
@@ -33,7 +33,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
   </numFmts>
   <fonts count="1">

--- a/DateBase/orders/Test_2025-5-31.xlsx
+++ b/DateBase/orders/Test_2025-5-31.xlsx
@@ -402,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -456,9 +456,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3">
+      <c r="C3" t="str">
+        <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F3" t="str">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L3"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -516,7 +524,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>012</v>
+        <v>01213</v>
       </c>
     </row>
   </sheetData>
